--- a/CATI/future_30_day_forecast.xlsx
+++ b/CATI/future_30_day_forecast.xlsx
@@ -454,7 +454,7 @@
         <v>46016</v>
       </c>
       <c r="B2" t="n">
-        <v>495.1407819896937</v>
+        <v>496.1003320008517</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>46017</v>
       </c>
       <c r="B3" t="n">
-        <v>501.3064653396606</v>
+        <v>499.8699593156576</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>46018</v>
       </c>
       <c r="B4" t="n">
-        <v>507.6558904409409</v>
+        <v>501.7609669536352</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         <v>46019</v>
       </c>
       <c r="B5" t="n">
-        <v>507.7007699757814</v>
+        <v>501.5454652011395</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         <v>46020</v>
       </c>
       <c r="B6" t="n">
-        <v>510.9059256970883</v>
+        <v>506.8152063310146</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>46021</v>
       </c>
       <c r="B7" t="n">
-        <v>509.8420534461737</v>
+        <v>507.2915770858526</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>46022</v>
       </c>
       <c r="B8" t="n">
-        <v>512.9685017198325</v>
+        <v>510.7287778526544</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         <v>46023</v>
       </c>
       <c r="B9" t="n">
-        <v>510.8569591104985</v>
+        <v>508.5155661731959</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         <v>46024</v>
       </c>
       <c r="B10" t="n">
-        <v>513.3342977285386</v>
+        <v>508.8830399215221</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>46025</v>
       </c>
       <c r="B11" t="n">
-        <v>518.5979911923408</v>
+        <v>515.159951555729</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>46026</v>
       </c>
       <c r="B12" t="n">
-        <v>522.1116656720639</v>
+        <v>522.1300817906857</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>46027</v>
       </c>
       <c r="B13" t="n">
-        <v>522.1272530436516</v>
+        <v>515.8638998866081</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>46028</v>
       </c>
       <c r="B14" t="n">
-        <v>522.4885133028031</v>
+        <v>517.7146222651005</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>46029</v>
       </c>
       <c r="B15" t="n">
-        <v>523.2991931855679</v>
+        <v>521.1259936451912</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>46030</v>
       </c>
       <c r="B16" t="n">
-        <v>521.0169990956783</v>
+        <v>521.4379166543484</v>
       </c>
     </row>
     <row r="17">
@@ -574,7 +574,7 @@
         <v>46031</v>
       </c>
       <c r="B17" t="n">
-        <v>522.80041680336</v>
+        <v>520.3921581387521</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>46032</v>
       </c>
       <c r="B18" t="n">
-        <v>522.3958474516869</v>
+        <v>519.4365293562413</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>46033</v>
       </c>
       <c r="B19" t="n">
-        <v>523.2224853694439</v>
+        <v>517.9278902828694</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>46034</v>
       </c>
       <c r="B20" t="n">
-        <v>520.8756787955762</v>
+        <v>518.9679522871971</v>
       </c>
     </row>
     <row r="21">
@@ -606,7 +606,7 @@
         <v>46035</v>
       </c>
       <c r="B21" t="n">
-        <v>521.0599570333958</v>
+        <v>518.698460483551</v>
       </c>
     </row>
     <row r="22">
@@ -614,7 +614,7 @@
         <v>46036</v>
       </c>
       <c r="B22" t="n">
-        <v>521.0669996380806</v>
+        <v>519.947166967392</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>46037</v>
       </c>
       <c r="B23" t="n">
-        <v>520.8638565838337</v>
+        <v>518.1819507837296</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>46038</v>
       </c>
       <c r="B24" t="n">
-        <v>521.1733215093612</v>
+        <v>520.5117263495922</v>
       </c>
     </row>
     <row r="25">
@@ -638,7 +638,7 @@
         <v>46039</v>
       </c>
       <c r="B25" t="n">
-        <v>523.2689158380032</v>
+        <v>518.612778711319</v>
       </c>
     </row>
     <row r="26">
@@ -646,7 +646,7 @@
         <v>46040</v>
       </c>
       <c r="B26" t="n">
-        <v>519.2492858111858</v>
+        <v>518.7449299693108</v>
       </c>
     </row>
     <row r="27">
@@ -654,7 +654,7 @@
         <v>46041</v>
       </c>
       <c r="B27" t="n">
-        <v>519.4617344677448</v>
+        <v>519.6854786038399</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +662,7 @@
         <v>46042</v>
       </c>
       <c r="B28" t="n">
-        <v>521.3494841694832</v>
+        <v>516.098588347435</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>46043</v>
       </c>
       <c r="B29" t="n">
-        <v>519.5051020860673</v>
+        <v>519.1874435484409</v>
       </c>
     </row>
     <row r="30">
@@ -678,7 +678,7 @@
         <v>46044</v>
       </c>
       <c r="B30" t="n">
-        <v>519.442323410511</v>
+        <v>520.584766548872</v>
       </c>
     </row>
     <row r="31">
@@ -686,7 +686,7 @@
         <v>46045</v>
       </c>
       <c r="B31" t="n">
-        <v>521.1054901063443</v>
+        <v>519.5553562402725</v>
       </c>
     </row>
   </sheetData>
